--- a/currency_data.xlsx
+++ b/currency_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,24 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Change_%</t>
+          <t>Change_Pct</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment</t>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Icon</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06:55:06</t>
+          <t>08:09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -484,19 +489,26 @@
       <c r="D2" t="n">
         <v>5.3333</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.285817</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.285817</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BULLISH (Otimista)</t>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>🟢</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06:55:06</t>
+          <t>08:09:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -512,19 +524,26 @@
       <c r="D3" t="n">
         <v>6.23053</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.436204</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.436204</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BULLISH (Otimista)</t>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>🟢</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06:55:06</t>
+          <t>08:09:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -540,19 +559,26 @@
       <c r="D4" t="n">
         <v>7.16923</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.466412</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.466412</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BULLISH (Otimista)</t>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>🟢</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06:55:06</t>
+          <t>08:09:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -568,116 +594,19 @@
       <c r="D5" t="n">
         <v>0.03362037</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.183411</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.183411</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BULLISH (Otimista)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>06:58:16</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Dólar Americano</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>5.3333</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.285817</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>BULLISH (Otimista)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06:58:16</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Euro</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>6.23053</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.436204</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>BULLISH (Otimista)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>06:58:16</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Libra Esterlina</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>7.16923</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.466412</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>BULLISH (Otimista)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>06:58:16</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Iene Japonês</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.03362037</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.183411</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>BULLISH (Otimista)</t>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>🟢</t>
         </is>
       </c>
     </row>
